--- a/result.xlsx
+++ b/result.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,12 +464,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>a Word Tensioner Men and Women Fitness Yoga Training Stretch Rope</t>
+          <t>Officail Standar Size and Weight Match Mikasa M330 Volleyball Ball</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 2-7</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -489,12 +489,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mini Customized Logo Squeeze Emoticons PU Antistress Ball</t>
+          <t>Custom Design Promotion Ball PU Smiley Face Stress Ball</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 0.09</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -514,12 +514,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Yoga Fitness Stretching Belt One-Word Horse Splits, Leg Pressing and Stretching Trainer Opening Degree Lower Waist Auxiliary Pull Rope Supplies</t>
+          <t>2022 Qatar Ball Fifa World Cup Ball Soccer Ball Football Officail Standar Size and Weight Match Mikasa M330 Volleyball Ball</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 2-7</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -539,12 +539,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Yoga Resisdence with a Word Horse Open Hip Leg Press Elastic Yogastretch Rope Handstand Lower Waist Tension Trainer Fitness Supplies</t>
+          <t>High Quality Custom Mikasa V300 W PU Official Match and Training Volleyball Outdoor Ball</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 2-7</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -564,12 +564,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Spot The Word Rally Device for Men and Women Fitness Yoga Training Elastic Rope Exercise Arm Leg Hip Resistance Band</t>
+          <t>Customized Mini Foam Squeeze Soccer PU Antistress Decoration Stress Ball</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 0.3-0.5</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8 Word Tensioner Yoga Elastic Band Stretching Multifunctional Training</t>
+          <t>OEM Toys Kids Children Gadgets Sports PU Foam Stress Balls</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 0.3-0.5</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -614,12 +614,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Aerial Yoga with a Word Horse Open Hip Leg Press Elastic Stretch Rope Handstand Lower Waist Tension Trainer Fitness Supplies</t>
+          <t>Wholesale Kids Outdoor Playground Four in One Plastic Climbing Ball Combination</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 1600-1750</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -639,12 +639,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Wholesale Newest Charming Custom Fashion Rainbow Wristband Hand Fidget Sensory Toy Silicone Squeeze Pop It Bracelet</t>
+          <t>Basketball Shirt Printed Number Word Suit Training Match Team Suit Adult Sportswear Children's Logo Light Board Basketball Shirt</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 4.5-9.8</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -664,12 +664,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Easy Assembly Portable Soccer Goal Football Gate Sporting Gate/ Goal</t>
+          <t>L071 2021 New Fashion Slit a Word U Collar Leisure Suit Women′ S 2021 Casual Collection Tie Dye Bare Back Bell-Bottoms Suits</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 9.39-10.43</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -689,12 +689,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Promotional Volleyball Release Pressure PU Foam Ball</t>
+          <t>T Shirt Street Wear Word Indian Suppliers Men′ S Supplier Cheap Wholesale Motocross Jersey Racing Apparel</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 14.32-15.87</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -714,12 +714,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Popular Outdoor Playground Children Kids Climber Rope Climbing Nets Structure</t>
+          <t>Q286	Plus Size Jumpsuits Wash Water Falbala Word Shoulder Tight Sexy The Cowboy Blue Jumpsuits</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 14.32-15.87</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -739,12 +739,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Promotional Custom Bastketball PU Stress Ball Keychain</t>
+          <t>Summer Football Suit Set Custom Adult Short Sleeve Match Shirt Men′ S Quick Dry Breathable Printed Word Number Football Shirt</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 16.2-16.49</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -764,12 +764,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Outdoor Soccer Goal Football Gate Sporting Gate, Futsal Goal Post for Training</t>
+          <t>Long Sleeve Quick Dry Clothes Custom Logo Summer Outdoor Work Clothes Round Neck Breathable Fitness Sunscreen Quick Dry T-Shirt Printed Words</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 3.99-4.99</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -789,12 +789,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Latest Design Outdoor Bridge Cargo Netting Playground Climbing Rope Tunnel</t>
+          <t>Long Sleeve Quick Dry Clothes Custom Logo Summer Outdoor Work Clothes Round Neck Breathable Fitness Sunscreen Quick Dry T-Shirt Printed Words</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 7.39-7.99</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -814,12 +814,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>OEM Toys Kids Children Gadgets Sports PU Foam Stress Balls</t>
+          <t>L054 Autumn and Winter Women Row Button a Word Collar Pants Casual Two Sets Ladies Suits</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 9.99-11.11</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -839,12 +839,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Customized Promotion Elephant PU Foam Anti Stress Ballwith Keyring</t>
+          <t>Customized Helm Shape Coin with Holiday Party Metal Craft Challenge Coin in Different Shape (040)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 0.4-0.95</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Customized Mini Foam Squeeze Soccer PU Antistress Decoration Stress Ball</t>
+          <t>Basketball Suit Men's Customized Team Uniform Student Summer Competition Training Sports Printed Size Adult Children's Vest Basketball Suit</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 4-6.8</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -889,12 +889,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Customized Vessel Shape Steamer PU Foam Anti-Stress Ball</t>
+          <t>Used Key Ring Vintage Volvo Bottega Soft PVC Rubber Vespa Volkswagen Silicone Keychain</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 0.22-0.89</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -914,12 +914,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Casual Cotton Custom Logo Fashion Words Multicolor Cartoon Sports School Crew Sports Socks</t>
+          <t>Wholesale Custom Logo Fashion Charm Soccer Shape Rotatable Trolley Metal Keychain</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 0.26-0.78</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -939,12 +939,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Wholesale Words Embroidery Patchwork Long Sleeve Sweatshirt Sports Pants 2 Piece Tracksuit Set Sweat Suits for Women</t>
+          <t>Basketball Suit Men′ S Adult and Children′ S Light Plate Vest Ball Suit Training Match Ball Suit Wholesale Can Be Customized Printing Size</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 4.2-8.6</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -964,12 +964,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Long Sleeve Quick Dry Clothes Custom Logo Summer Outdoor Work Clothes Round Neck Breathable Fitness Sunscreen Quick Dry T-Shirt Printed Words</t>
+          <t>50mm Football Turf, 60mm Fifa Approved Synthetic Grass for Soccer Field</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 3-8</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -989,12 +989,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Outdoor Written Words None 1 PC/Poly Bag 500 PCS/CTN Dong Guan Basketball Keychain</t>
+          <t>50mm Soccer Turf Artificial Grass Fifa Grass for Football</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 3-7</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1014,12 +1014,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Recycled Basketball Shirt Printed Number Word Suit Training Match Team Suit Adult Sportswear Children′ S Logo Light Board Basketball Shirt</t>
+          <t>Popular Gaint Airtight Black Inflatable Dart Board for Sports</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 508-825</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1039,12 +1039,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Basketball Shirt Printed Number Word Suit Training Match Team Suit Adult Sportswear Children's Logo Light Board Basketball Shirt</t>
+          <t>Low Back Design Plastic School Stadium Seat</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 6.2-14.5</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1064,12 +1064,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Basketball Girl Close-Fitting Seamless Underwear English Words Print Breathable Sports Bodysuit</t>
+          <t>2019 Fashion Party T-Shirts, Custom Printed Cotton Advertising T-Shirt</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 3.6-4.99</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1089,12 +1089,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>English Funny Fancy Slogan Socks Phase Letter Words Initial Street Skateboard Women Men Basketball Sport Stripe Sock</t>
+          <t>Bestsub Sublimation Round Neck Long Sleeve Hoodie (JA301 W)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 0.15-0.3</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1114,12 +1114,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Step Kemp Lovers' Sport Shoes with "N"Word Men Shoes and Lady Shoes Running Shoes Ex-21s3383</t>
+          <t>24mm Small Metal Stamped Charm Handmade Pendents Quote Word Charms DIY Jewelry 2021 (charm-03)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 0.15-0.3</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1139,12 +1139,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>New Arrival Mens Words Coffee Beer on Sole Crew Happy Funny Casual Socks</t>
+          <t>Customized Outdoor Kids Wooden Rope Tunnel Bridge Play Gym Hanging Rings Climbing</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 3000-3800</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1164,12 +1164,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Long Sleeve Quick Dry Clothes Custom Logo Summer Outdoor Work Clothes Round Neck Breathable Fitness Sunscreen Quick Dry T-Shirt Printed Words</t>
+          <t>Fih Global Recognized Field Hockey Artificial Grass, Water-Based Hockey Turf Kdk for Sports</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 10-16</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Dong Guan Written Words None 1 PC/Poly Bag Basketball Key Chain</t>
+          <t>2019 Fashion Party or Working T-Shirts Different Colors</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 3.6-4.99</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1214,12 +1214,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>a Word Tensioner Men and Women Fitness Yoga Training Stretch Rope</t>
+          <t>Hot Sale 2022 Qatar World Cup Football, Professional-Grade Thermal Bonding Size 5 Soccer Ball</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 18-25</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1239,12 +1239,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Mini Customized Logo Squeeze Emoticons PU Antistress Ball</t>
+          <t>World Cup Flag Design Glossy PU Training Size 5 Soccer Ball</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 1.81-3.93</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1264,12 +1264,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Yoga Fitness Stretching Belt One-Word Horse Splits, Leg Pressing and Stretching Trainer Opening Degree Lower Waist Auxiliary Pull Rope Supplies</t>
+          <t>Officail Standar Size and Weight Match Mikasa M330 Volleyball Ball</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 2-7</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1289,12 +1289,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Yoga Resisdence with a Word Horse Open Hip Leg Press Elastic Yogastretch Rope Handstand Lower Waist Tension Trainer Fitness Supplies</t>
+          <t>Custom Design Promotion Ball PU Smiley Face Stress Ball</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 0.09</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1314,12 +1314,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Spot The Word Rally Device for Men and Women Fitness Yoga Training Elastic Rope Exercise Arm Leg Hip Resistance Band</t>
+          <t>2022 Qatar Ball Fifa World Cup Ball Soccer Ball Football Officail Standar Size and Weight Match Mikasa M330 Volleyball Ball</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 2-7</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1339,12 +1339,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>8 Word Tensioner Yoga Elastic Band Stretching Multifunctional Training</t>
+          <t>High Quality Custom Mikasa V300 W PU Official Match and Training Volleyball Outdoor Ball</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 2-7</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1364,12 +1364,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Aerial Yoga with a Word Horse Open Hip Leg Press Elastic Stretch Rope Handstand Lower Waist Tension Trainer Fitness Supplies</t>
+          <t>Customized Mini Foam Squeeze Soccer PU Antistress Decoration Stress Ball</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 0.3-0.5</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1389,12 +1389,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Wholesale Newest Charming Custom Fashion Rainbow Wristband Hand Fidget Sensory Toy Silicone Squeeze Pop It Bracelet</t>
+          <t>OEM Toys Kids Children Gadgets Sports PU Foam Stress Balls</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 0.3-0.5</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Easy Assembly Portable Soccer Goal Football Gate Sporting Gate/ Goal</t>
+          <t>Wholesale Kids Outdoor Playground Four in One Plastic Climbing Ball Combination</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 1600-1750</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1439,12 +1439,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Promotional Volleyball Release Pressure PU Foam Ball</t>
+          <t>Basketball Shirt Printed Number Word Suit Training Match Team Suit Adult Sportswear Children's Logo Light Board Basketball Shirt</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 4.5-9.8</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Popular Outdoor Playground Children Kids Climber Rope Climbing Nets Structure</t>
+          <t>L071 2021 New Fashion Slit a Word U Collar Leisure Suit Women′ S 2021 Casual Collection Tie Dye Bare Back Bell-Bottoms Suits</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 9.39-10.43</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1489,12 +1489,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Promotional Custom Bastketball PU Stress Ball Keychain</t>
+          <t>T Shirt Street Wear Word Indian Suppliers Men′ S Supplier Cheap Wholesale Motocross Jersey Racing Apparel</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 14.32-15.87</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1514,12 +1514,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Outdoor Soccer Goal Football Gate Sporting Gate, Futsal Goal Post for Training</t>
+          <t>Q286	Plus Size Jumpsuits Wash Water Falbala Word Shoulder Tight Sexy The Cowboy Blue Jumpsuits</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 14.32-15.87</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1539,12 +1539,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Latest Design Outdoor Bridge Cargo Netting Playground Climbing Rope Tunnel</t>
+          <t>Summer Football Suit Set Custom Adult Short Sleeve Match Shirt Men′ S Quick Dry Breathable Printed Word Number Football Shirt</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 16.2-16.49</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>OEM Toys Kids Children Gadgets Sports PU Foam Stress Balls</t>
+          <t>Long Sleeve Quick Dry Clothes Custom Logo Summer Outdoor Work Clothes Round Neck Breathable Fitness Sunscreen Quick Dry T-Shirt Printed Words</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 3.99-4.99</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1589,12 +1589,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Customized Promotion Elephant PU Foam Anti Stress Ballwith Keyring</t>
+          <t>Long Sleeve Quick Dry Clothes Custom Logo Summer Outdoor Work Clothes Round Neck Breathable Fitness Sunscreen Quick Dry T-Shirt Printed Words</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 7.39-7.99</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1614,12 +1614,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Customized Mini Foam Squeeze Soccer PU Antistress Decoration Stress Ball</t>
+          <t>L054 Autumn and Winter Women Row Button a Word Collar Pants Casual Two Sets Ladies Suits</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 9.99-11.11</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1639,12 +1639,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Customized Vessel Shape Steamer PU Foam Anti-Stress Ball</t>
+          <t>Customized Helm Shape Coin with Holiday Party Metal Craft Challenge Coin in Different Shape (040)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 0.4-0.95</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Casual Cotton Custom Logo Fashion Words Multicolor Cartoon Sports School Crew Sports Socks</t>
+          <t>Basketball Suit Men's Customized Team Uniform Student Summer Competition Training Sports Printed Size Adult Children's Vest Basketball Suit</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 4-6.8</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1689,12 +1689,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Wholesale Words Embroidery Patchwork Long Sleeve Sweatshirt Sports Pants 2 Piece Tracksuit Set Sweat Suits for Women</t>
+          <t>Used Key Ring Vintage Volvo Bottega Soft PVC Rubber Vespa Volkswagen Silicone Keychain</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 0.22-0.89</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1714,12 +1714,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Long Sleeve Quick Dry Clothes Custom Logo Summer Outdoor Work Clothes Round Neck Breathable Fitness Sunscreen Quick Dry T-Shirt Printed Words</t>
+          <t>Wholesale Custom Logo Fashion Charm Soccer Shape Rotatable Trolley Metal Keychain</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 0.26-0.78</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Outdoor Written Words None 1 PC/Poly Bag 500 PCS/CTN Dong Guan Basketball Keychain</t>
+          <t>Basketball Suit Men′ S Adult and Children′ S Light Plate Vest Ball Suit Training Match Ball Suit Wholesale Can Be Customized Printing Size</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 4.2-8.6</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1764,12 +1764,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Recycled Basketball Shirt Printed Number Word Suit Training Match Team Suit Adult Sportswear Children′ S Logo Light Board Basketball Shirt</t>
+          <t>50mm Football Turf, 60mm Fifa Approved Synthetic Grass for Soccer Field</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 3-8</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1789,12 +1789,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Basketball Shirt Printed Number Word Suit Training Match Team Suit Adult Sportswear Children's Logo Light Board Basketball Shirt</t>
+          <t>50mm Soccer Turf Artificial Grass Fifa Grass for Football</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 3-7</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1814,12 +1814,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Basketball Girl Close-Fitting Seamless Underwear English Words Print Breathable Sports Bodysuit</t>
+          <t>Popular Gaint Airtight Black Inflatable Dart Board for Sports</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 508-825</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1839,12 +1839,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>English Funny Fancy Slogan Socks Phase Letter Words Initial Street Skateboard Women Men Basketball Sport Stripe Sock</t>
+          <t>Low Back Design Plastic School Stadium Seat</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 6.2-14.5</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1864,12 +1864,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Step Kemp Lovers' Sport Shoes with "N"Word Men Shoes and Lady Shoes Running Shoes Ex-21s3383</t>
+          <t>2019 Fashion Party T-Shirts, Custom Printed Cotton Advertising T-Shirt</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 3.6-4.99</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1889,12 +1889,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>New Arrival Mens Words Coffee Beer on Sole Crew Happy Funny Casual Socks</t>
+          <t>Bestsub Sublimation Round Neck Long Sleeve Hoodie (JA301 W)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 0.15-0.3</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1914,12 +1914,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Long Sleeve Quick Dry Clothes Custom Logo Summer Outdoor Work Clothes Round Neck Breathable Fitness Sunscreen Quick Dry T-Shirt Printed Words</t>
+          <t>24mm Small Metal Stamped Charm Handmade Pendents Quote Word Charms DIY Jewelry 2021 (charm-03)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 0.15-0.3</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1939,12 +1939,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Dong Guan Written Words None 1 PC/Poly Bag Basketball Key Chain</t>
+          <t>Customized Outdoor Kids Wooden Rope Tunnel Bridge Play Gym Hanging Rings Climbing</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 3000-3800</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1964,12 +1964,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Hot Selling Steelers General Version Camo Gold Words Pittsburgh Fashion Alternate Jerseys</t>
+          <t>Fih Global Recognized Field Hockey Artificial Grass, Water-Based Hockey Turf Kdk for Sports</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 10-16</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1989,12 +1989,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Summer Football Suit Set Custom Adult Short Sleeve Match Shirt Men′ S Quick Dry Breathable Printed Word Number Football Shirt</t>
+          <t>2019 Fashion Party or Working T-Shirts Different Colors</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 3.6-4.99</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2014,12 +2014,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Printing Words Short Sleeve Crew Neck T Shirt</t>
+          <t>Hot Sale 2022 Qatar World Cup Football, Professional-Grade Thermal Bonding Size 5 Soccer Ball</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 18-25</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2039,12 +2039,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>T Shirt Street Wear Word Indian Suppliers Men′ S Supplier Cheap Wholesale Motocross Jersey Racing Apparel</t>
+          <t>World Cup Flag Design Glossy PU Training Size 5 Soccer Ball</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 1.81-3.93</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2064,12 +2064,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2021 Casual Sexy Mesh Alphabetic Women's Fashion Print One Word Shoulder See-Through Slim Long Sleeve Trousers Clothing Two Sets</t>
+          <t>New Design Beautiful Cheap Large Expand Outdoor Combination Playground Slide with Climbing</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 2000-2200</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2089,12 +2089,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Written Words Promotion Gifts None 1 PC/Poly Bag 500 PCS/CTNBasketball Keychain</t>
+          <t>Fifa Grass, Football Turf, Grass Carpet for Soccer Field</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 3-8</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2114,12 +2114,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2022 New Basketball Suits Girls Training Team Uniforms Competition Pink Middle School Students Jerseys Custom Group Purchase Printing Number Words</t>
+          <t>Grass Sintetico De Futbol</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 3-7</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2139,12 +2139,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Summer Blank Customized Men's Speed Dry Outfit College Game Training Team Vest Printed Word Basketball Suit</t>
+          <t>50mm Cesped Artificial PARA Futbol Artificial Grass &amp; Sports Flooring for Soccer X50e</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 6-6.5</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2164,12 +2164,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>South Africa 2019 Word Cup Champions Joint Signature Edition Rugby Jerseys</t>
+          <t>Fifa Soccer Turf Grass for Football School</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 3-8</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2189,12 +2189,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Q286	Plus Size Jumpsuits Wash Water Falbala Word Shoulder Tight Sexy The Cowboy Blue Jumpsuits</t>
+          <t>Fih Certificate Water Based Artificial Hockey Grass Lawn H12</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 3-16</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2214,12 +2214,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Vikings Dalvin 33 Cook Adam Thielen Minnesota Gold Word Alternate Game Football Jerseys</t>
+          <t>OEM New Design Double Color Training Volleyball M5000</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 2-10</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2239,12 +2239,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>L071 2021 New Fashion Slit a Word U Collar Leisure Suit Women′ S 2021 Casual Collection Tie Dye Bare Back Bell-Bottoms Suits</t>
+          <t>40mm Soccer Artificial Turf Carpet Made in China</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 2.5-4.5</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2264,12 +2264,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Zinc Alloy Written Words None 1 PC/Poly Bag Basketball Fashion Key Chain</t>
+          <t>Fifa Synthetic Turf Football Artificial Grass Made in China</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 3-8</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2289,12 +2289,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>L054 Autumn and Winter Women Row Button a Word Collar Pants Casual Two Sets Ladies Suits</t>
+          <t>Interactive Targe Sport Game Custom Size Inflatable Football Game Darts for Outdoor</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 508-825</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2314,12 +2314,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Wholesale Baby Children's Clothing Short-Sleeved Basketball Clothing Suit Children's Game Jersey Engraved Number Words</t>
+          <t>50mm Fifa 2022 PRO Football Artificial Synthetic Turf &amp; Sports Flooring for Wholesale</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 5-6.6</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2339,12 +2339,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Wholesale Hot Selling Car Self Defense Design Gold Brick Gold Plated Laser Customized Word Metal Keychain</t>
+          <t>50mm 60mm Pile Height Fifa Quality PRO Approved Football Artificial Grass</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 6-8</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2364,12 +2364,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>High Quality Design Festival Woven Wristband with Custom</t>
+          <t>Grass Carpet Artificial Grass Price (MD50)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 1.5-3.5</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2389,12 +2389,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Wholesale Professional Custom Festival Fabric Woven Wristbands</t>
+          <t>Fih 13mm Height Fih Synthetic Hockey Grass Hockey Field H12</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 3-16</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2414,12 +2414,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Different Styles Custom Silicone Bracelet Wristbands with Sport</t>
+          <t>Fast Delivery Stamped Zinc Alloy with High Quality Supplier Metal Custom Security Police Badges</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 0.9-1.8</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2439,12 +2439,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Kids Bracelets Set Customised Wristbands Festival Wristband</t>
+          <t>Outdoor Soccer Goal Football Gate Sporting Gate, Futsal Goal Post for Training</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 2200</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2464,12 +2464,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Wholesales Custom Festival Polyester Wristband with Wedding</t>
+          <t>CE, SGS Artificial Grass Price Turf Cesped Artificial for Futbol MD50</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 3.5-5.5</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2489,12 +2489,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Custom High Quality Silicion Bracelet for Children</t>
+          <t>60mm Fifa Approval Artificial Grass Price Footbal Grass Mds60</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 2.5-6.8</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2514,12 +2514,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Electroplating Outdoor None 1 PC/Poly Bag 500 PCS/CTN Dong Guan Basketball Keychain</t>
+          <t>Fifa Synthetic Turf Carpet Football Grass 60mm 50mm</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 3-8</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2539,12 +2539,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Factory Design Multicolor Logo Printing Polyester Wristband</t>
+          <t>50mm Football Field Artificial Grass, Fifa Approved Turf Carpet for Sale</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 3-7</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2564,12 +2564,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Embroidery Scissors National Flag Design Customized Make Your Own Logo High Quality Hot Selling Keychain</t>
+          <t>Basketball or Tennis Sport Flooring Polypropylene Outdoor</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 14.5-18.5</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2589,12 +2589,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Promotional Custom Design Polyester Wristband for Sport</t>
+          <t>Airtight Event PVC Inflatable Soccer Sticky Dart Board Games for Kids and Adult</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 508-825</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2614,12 +2614,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Bf0248 Free Sample 201 304 Mirror Stainless Steel Gold Color Strip Coil</t>
+          <t>50mm Fifa Artificial Grass Futsal Astro Turf Cesped Artificial MD50</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 2-8</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2639,12 +2639,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Personal Design Personalized Logo Hot Sale Shiny Color Kids Crossfit Woven Wristband Bracelet Girls Adult Silicon Silicone Mold</t>
+          <t>Fifa Turf Soccer Grass Carpet for Football</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 3-8</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2664,12 +2664,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Manufacturer Supplies Colorful PVC Wristband with Custom Design</t>
+          <t>Giant Outdoor Carnival Game Football Soccer Dart Inflatable Dart Board for Sale</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 508-825</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Custom Festival Wristband with Logo Printed</t>
+          <t>Fifa Approved Football Artificial Grass 60mm Turf Carpet for Soccer</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>US$ 3-8</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2703,6 +2703,1606 @@
         </is>
       </c>
       <c r="E91" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Fifa Turf Grass Football Synthetic Turf for Sports</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>US$ 3-8</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>40mm 50mm 60mm Fifa Approve Football Artificial Grass Soccer Turf for Wholesale</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>US$ 6-7.78</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Wholesale Volleyball PU Material Ball Size 5 Mva330 Soft Touch Indoor Outdoor Volleyball Game</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>US$ 2-7</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Fifa Artificial Grass Turf for Soccer Field Mds60</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>US$ 3-8</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Fifa Approved Soccer Turf Football Artificial Grass Carpet with Factory Price</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>US$ 3-8</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Fifa Grass Carpet Football Turf Soccer Artificial Grass for Wholesale</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>US$ 3-8</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Fleece Custom Blank Womens Drop Shoulder Cropped Sweatshirt Jumper Hoodie Crop Top Hoodie</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>US$ 6.5-7.5</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Promotion Gift Fivb Games Beach Student Use Mikasa Mva200 Volleyball</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>US$ 2-7</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>10mm Artificial Grass Underlay Shock Pad, Shock Mat for Turf Carpet</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>US$ 5-7</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Fifa Quality PRO 60mm Professional Football Synthetic Turf, Artificial Soccer Astro Artificial Grass Turf</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>US$ 6.5-7.8</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Factory Wholesale Popular Giant Outdoor Football Dart Game Inflatable Soccer Dart</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>US$ 508-825</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>13mm PE Curly Yarn Golf Putting Green Artificial Grass Lawn G13</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>US$ 8-11</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Synthetic Turf Astro Truf Fifa Approved</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>US$ 3-7</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Custom Logo Official Size 5 PVC Machine-Stitched Waterproof New Molten 5000 Volleyball</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>US$ 2-10</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Grass Artificial Sport Flooring for Outfoor Soccer Field</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>US$ 3.5-5.5</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>High Quality Portable Full-Size and Youth Size Aluminum Soccer Goals / Goal Gate Price</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>US$ 1000-3000</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Professional Fifa Quality PRO Football Artificial Grass Turf for Soccer, Fifa 2 Star Futsal Astro Turf</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>US$ 6-8</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Easy Assembly Portable Soccer Goal Football Gate Sporting Gate/ Goal</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>US$ 1800</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>50mm Fifa Field Artificial Soccer Turf Football Grass Carpet for Sale</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>US$ 3-7</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>50mm Gazon Synthetique Cesped Artificial Fifa Approve Soccer Turf X50e</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>US$ 6-6.5</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Artifici Turf Footbal Turf Fifa Grass</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>US$ 3-7</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Multi-Sports Cesped Artificial Grass Carpet Golf Artificial Grass Golf Synthetic Turf G13</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>US$ 3-10</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Fifa Turf Football Synthetic Grass for School</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>US$ 3-8</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Fifa Synthetic Turf, Football Grass, Fifa Grass Mds60</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>US$ 3-8</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Shock Absorbing Mat for Artificial Grass, Shock Pad 10mm Thick</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>US$ 5-7</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Fifa 2 Star Professional Cesped Artificial, Fustal Synthetic Turf for Training Use</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>US$ 6-8</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Non Infil Cepsed Artificial Grass, Astro Turf for Futsal Without Infill</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>US$ 8-12</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Fifa Synthetic Grass Football Turf for Soccer Stadium</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>US$ 3-8</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Giant PVC Inflatable Football Target Darts Board Game with Blower</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>US$ 508-825</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Artificial Turf Soccer Carpet Grass (MB50)</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>US$ 3.5-5.5</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Soft Touch Official Promotionalpvc PU Leather Molten 4500 Sport Ball Volleyball</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>US$ 2-10</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Field Hockey Artificial Turf Artificial Grass Hockey Fih Hockey Grass, Cesped Artificial PARA Padel</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>US$ 10-16</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Cheap Price Football Artificial Grass (W50)</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>US$ 2.5-6.5</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Women Black and White Two Tone Elastic Hem Crop Top Hoodies</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>US$ 11.5-15.5</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Colorful Artificial Grass for Kindergarten, Golf Turf Multi-Purpose Artificial Grass for Decoration</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>US$ 8-11</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Digital Ball Gauge Soccer Ball Pressure Gauge Electronic Measuring Sphere Barometer Ball Gauge</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>US$ 4.13-6.67</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Fivb Official Game Volleyball Mikasa V200 W Soft Touch Leather Volleyball Ball</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>US$ 2-10</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Fifa Football Turf Grass for Sports Flooring</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>US$ 3-8</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>The Best Turf Artificial Grass Synthet Turf for Football Court (SE50)</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>US$ 6.1-6.7</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Fifa Peru Field Artificial Grass for Football</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>US$ 5.5-7.5</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Commercial Sports Equipment Air Sealed Inflatable Football Board for Sale</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>US$ 508-825</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Fifa Football Grass,Soccer Artificial Turf, Sports Grass</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>US$ 3-8</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Fifa Turf Soccer Artificial Football Grass</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>US$ 3-8</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>High Density Football Turf, Non Infilled Grass Carpet 30mm</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>US$ 3-8</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Fifa Football Grass Soccer Synthetic Turf with UV Resistant</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>US$ 3-8</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Football &amp;Soccer Artificial Grass Roll with Factory Price</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>US$ 2.5-4.5</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Drop Shipping Front Zipper Velvet Fall Two Piece Set for Women Clothing Jogger Set</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>US$ 18.5-19.9</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Mikasa Mva300 Volley-Lite Training Volleyball</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>US$ 2-7</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Field Hockey Artificial Grass, Multi-Purpose Synthetic Turf for Hockey, Fih Approved Turf Lawn</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>US$ 10-16</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Act Turf Fih Approved Hockey Artificial Grass, Non Infill Synthetic Turf for Field Hockey</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>US$ 10-16</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Fifa Artificial Grass,Soccer Synthetic Turf, Football Grass Mds60</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>US$ 3-8</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>PVC Adults Giant Inflatable Golf Dart Board PVC Football Kick Dartboard</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>US$ 508-825</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Fifa Approved Football Artificial Grass Football Turf Grass 60mm for Soccer</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>US$ 3.5-5.5</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Fifa Grass Soccer Turf Football Artificial Grass with UV Resistant</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>US$ 3-8</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Outdoor Sport Customized Inflatable Soccer Dart Board for Activity</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>US$ 508-825</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Cheap Price Wholesale TPU Soft Touch Material Molten 5000 Volleyball Ball</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>US$ 3-9</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Fifa Approved Turf Football Synthetic Grass for Soccer</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>US$ 3-8</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>3m Football Toss Inflatable Foot Dart Board PVC for Sports Event</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>US$ 508-825</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Factory Price Commercial Inflatable Dart Game Inflatable Soccer Dart with Balls</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>US$ 508-825</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>50mm Soccer Artificial Grass Football Lawn for Training Football Pitch</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>US$ 5-6.6</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Fifa Approved Football Artificial Turf Grass for Flooring</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>US$ 3-8</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>13mm PE Made Multisports Artificial Grass Carpet Synthetic Turf for Padel</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>US$ 8-11</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Cheap Price Molten 5000 Volley Ball, Most Popular Volleyball of Top Quality PU Material Ball Size 5 Volleyball</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>US$ 2-10</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Semi-Infill Football Synthetic Turf for Futsal Court, Non Infill Soccer Turf</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>US$ 12</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
@@ -2800,6 +4400,70 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E89" r:id="rId88"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E90" r:id="rId89"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E91" r:id="rId90"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E92" r:id="rId91"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E93" r:id="rId92"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E94" r:id="rId93"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E95" r:id="rId94"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E96" r:id="rId95"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E97" r:id="rId96"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E98" r:id="rId97"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E99" r:id="rId98"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E100" r:id="rId99"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E101" r:id="rId100"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E102" r:id="rId101"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E103" r:id="rId102"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E104" r:id="rId103"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E105" r:id="rId104"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E106" r:id="rId105"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E107" r:id="rId106"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E108" r:id="rId107"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E109" r:id="rId108"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E110" r:id="rId109"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E111" r:id="rId110"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E112" r:id="rId111"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E113" r:id="rId112"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E114" r:id="rId113"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E115" r:id="rId114"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E116" r:id="rId115"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E117" r:id="rId116"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E118" r:id="rId117"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E119" r:id="rId118"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E120" r:id="rId119"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E121" r:id="rId120"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E122" r:id="rId121"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E123" r:id="rId122"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E124" r:id="rId123"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E125" r:id="rId124"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E126" r:id="rId125"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E127" r:id="rId126"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E128" r:id="rId127"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E129" r:id="rId128"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E130" r:id="rId129"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E131" r:id="rId130"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E132" r:id="rId131"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E133" r:id="rId132"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E134" r:id="rId133"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E135" r:id="rId134"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E136" r:id="rId135"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E137" r:id="rId136"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E138" r:id="rId137"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E139" r:id="rId138"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E140" r:id="rId139"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E141" r:id="rId140"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E142" r:id="rId141"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E143" r:id="rId142"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E144" r:id="rId143"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E145" r:id="rId144"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E146" r:id="rId145"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E147" r:id="rId146"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E148" r:id="rId147"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E149" r:id="rId148"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E150" r:id="rId149"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E151" r:id="rId150"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E152" r:id="rId151"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E153" r:id="rId152"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E154" r:id="rId153"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E155" r:id="rId154"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
